--- a/biology/Botanique/Juncaginaceae/Juncaginaceae.xlsx
+++ b/biology/Botanique/Juncaginaceae/Juncaginaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Juncaginaceae (Juncaginacées) est constituée de plantes monocotylédones ; elle comprend une grosse vingtaine d'espèces réparties en 2 à 4 genres.
 Ce sont des plantes herbacées aquatiques, généralement pérennes, des régions froides à subtropicales, largement répandues dans les zones tempérées et froides.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Juncago dérivé du latin juncus (jonc) et du suffixe -ago (sorte de)[1], inclus désormais dans genre Triglochin, signifiant la ressemblance de Juncago avec Juncus (Juncaceae).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Juncago dérivé du latin juncus (jonc) et du suffixe -ago (sorte de), inclus désormais dans genre Triglochin, signifiant la ressemblance de Juncago avec Juncus (Juncaceae).
 On a ici un exemple de famille ayant pris le nom du genre-type qui n'est plus accepté.
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre-type Juncago sont incluses dans le genre Triglochin (Triglochin palustris ex Juncago palustris, Triglochin maritima ex Juncago maritima). 
-En classification phylogénétique APG IV (2016)[2] le genre Maundia est retiré des Juncaginaceae pour former la famille des Maundiaceae[1], monospécifique. Il s’agirait d'un clade très proche unissant Potamogetonaceae et Juncaginaceae ainsi que les familles des herbiers marins (Cymodoceaceae, Posidoniaceae ,  Ruppiaceae et Zosteraceae)[1].
+En classification phylogénétique APG IV (2016) le genre Maundia est retiré des Juncaginaceae pour former la famille des Maundiaceae, monospécifique. Il s’agirait d'un clade très proche unissant Potamogetonaceae et Juncaginaceae ainsi que les familles des herbiers marins (Cymodoceaceae, Posidoniaceae ,  Ruppiaceae et Zosteraceae).
 </t>
         </is>
       </c>
@@ -577,14 +593,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010)[3] et DELTA Angio           (15 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010) et DELTA Angio           (15 avr. 2010) :
 Lilaea Bonpl.
 Maundia F.Muell.
 Tetroncium Willd.
 Triglochin L.
-Selon ITIS      (15 avr. 2010)[5] :
+Selon ITIS      (15 avr. 2010) :
 Lilaea Bonpl.
 Triglochin L.</t>
         </is>
@@ -614,9 +632,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 genre Lilaea Bonpl. (1808)
 Lilaea scilloides  (Poir.) Hauman, Publ. Inst. Invest. Geogr. Fac. Filos. Letras Univ. Buenos Aires (1925)
 genre Tetroncium Willd. (1808)
@@ -649,7 +669,7 @@
 Triglochin trichophora  Nees ex Endl. (1846)
 Triglochin triglochinoides  (F.Muell.) Druce (1916 publ. 1917)
 Triglochin turrifera  Ewart (1931)
-Selon NCBI  (10 avril 2021)[7] :
+Selon NCBI  (10 avril 2021) :
 genre Cycnogeton
 Cycnogeton dubium
 Cycnogeton multifructum
